--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -359,100 +359,103 @@
     <t>cube_name</t>
   </si>
   <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>ufo</t>
-  </si>
-  <si>
-    <t>tez</t>
-  </si>
-  <si>
-    <t>kin</t>
-  </si>
-  <si>
-    <t>8bi</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>wit</t>
-  </si>
-  <si>
-    <t>buf</t>
-  </si>
-  <si>
-    <t>shi</t>
-  </si>
-  <si>
-    <t>asa</t>
-  </si>
-  <si>
-    <t>sev</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>j.c</t>
-  </si>
-  <si>
-    <t>clo</t>
-  </si>
-  <si>
-    <t>tms</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>mil</t>
-  </si>
-  <si>
-    <t>asr</t>
-  </si>
-  <si>
-    <t>aji</t>
-  </si>
-  <si>
-    <t>sil</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>bon</t>
-  </si>
-  <si>
-    <t>kyo</t>
-  </si>
-  <si>
-    <t>ler</t>
-  </si>
-  <si>
-    <t>toe</t>
-  </si>
-  <si>
-    <t>stu</t>
-  </si>
-  <si>
-    <t>whi</t>
-  </si>
-  <si>
-    <t>zer</t>
+    <t>mapp</t>
+  </si>
+  <si>
+    <t>ufot</t>
+  </si>
+  <si>
+    <t>tezu</t>
+  </si>
+  <si>
+    <t>kine</t>
+  </si>
+  <si>
+    <t>8bit</t>
+  </si>
+  <si>
+    <t>comi</t>
+  </si>
+  <si>
+    <t>doga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buf </t>
+  </si>
+  <si>
+    <t>shin</t>
+  </si>
+  <si>
+    <t>asah</t>
+  </si>
+  <si>
+    <t>seve</t>
+  </si>
+  <si>
+    <t>madh</t>
+  </si>
+  <si>
+    <t>j.c.</t>
+  </si>
+  <si>
+    <t>clov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>mill</t>
+  </si>
+  <si>
+    <t>asre</t>
+  </si>
+  <si>
+    <t>ajia</t>
+  </si>
+  <si>
+    <t>silv</t>
+  </si>
+  <si>
+    <t>pier</t>
+  </si>
+  <si>
+    <t>bone</t>
+  </si>
+  <si>
+    <t>kyot</t>
+  </si>
+  <si>
+    <t>lerc</t>
+  </si>
+  <si>
+    <t>toei</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
+    <t>whit</t>
+  </si>
+  <si>
+    <t>ghli</t>
+  </si>
+  <si>
+    <t>zero</t>
   </si>
   <si>
     <t>olm</t>
   </si>
   <si>
-    <t>tri</t>
-  </si>
-  <si>
-    <t>pro</t>
+    <t>trig</t>
+  </si>
+  <si>
+    <t>prod</t>
   </si>
   <si>
     <t>Mappa</t>
@@ -465,9 +468,6 @@
   </si>
   <si>
     <t>Kinema Citrus</t>
-  </si>
-  <si>
-    <t>8bit</t>
   </si>
   <si>
     <t>CoMix Wave Films</t>
@@ -1389,7 +1389,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1397,7 +1397,7 @@
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1405,7 +1405,7 @@
         <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1413,7 +1413,7 @@
         <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1610,7 +1610,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
         <v>174</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
         <v>175</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
         <v>176</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
         <v>177</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
         <v>178</v>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -173,7 +173,7 @@
     <t>86 Eighty-Six</t>
   </si>
   <si>
-    <t>Cyberpunk: Edgerunners</t>
+    <t>Cyberpunk Edgerunners</t>
   </si>
   <si>
     <t>A Certain Scientific Railgun</t>
@@ -338,7 +338,7 @@
     <t>86―エイティシックス―</t>
   </si>
   <si>
-    <t>CYBERPUNK: EDGERUNNERS</t>
+    <t>CYBERPUNK EDGERUNNERS</t>
   </si>
   <si>
     <t>とある科学の超電磁砲</t>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -53,7 +53,7 @@
     <t>My Happy Marriage</t>
   </si>
   <si>
-    <t>Zom 100: Bucket List of the Dead</t>
+    <t>Zom 100 Bucket List of the Dead</t>
   </si>
   <si>
     <t>The Café Terrace and Its Godness</t>

--- a/checklist.xlsx
+++ b/checklist.xlsx
@@ -23,6 +23,171 @@
     <t>Dept Code</t>
   </si>
   <si>
+    <t>呪術廻戦</t>
+  </si>
+  <si>
+    <t>鬼滅の刃</t>
+  </si>
+  <si>
+    <t>五等分の花嫁</t>
+  </si>
+  <si>
+    <t>盾の勇者の成り上がり</t>
+  </si>
+  <si>
+    <t>転生したらスライムだった件</t>
+  </si>
+  <si>
+    <t>君の名は</t>
+  </si>
+  <si>
+    <t>推しの子</t>
+  </si>
+  <si>
+    <t>チェンソーマン</t>
+  </si>
+  <si>
+    <t>SPY×FAMILY</t>
+  </si>
+  <si>
+    <t>わたしの幸せな結婚</t>
+  </si>
+  <si>
+    <t>ゾン100～ゾンビになるまでにしたい100のこと～</t>
+  </si>
+  <si>
+    <t>女神のカフェテラス</t>
+  </si>
+  <si>
+    <t>僕の心のヤバイやつ</t>
+  </si>
+  <si>
+    <t>おとなりに銀河</t>
+  </si>
+  <si>
+    <t>トニカクカワイイ</t>
+  </si>
+  <si>
+    <t>すずめの戸締まり</t>
+  </si>
+  <si>
+    <t>山田くんとLv999の恋をする</t>
+  </si>
+  <si>
+    <t>とらドラ！</t>
+  </si>
+  <si>
+    <t>青春ブタ野郎はバニーガール先輩の夢を見ない</t>
+  </si>
+  <si>
+    <t>その着せ替え人形は恋をする</t>
+  </si>
+  <si>
+    <t>彼女、お借りします</t>
+  </si>
+  <si>
+    <t>冴えない彼女〈ヒロイン〉の育てかた</t>
+  </si>
+  <si>
+    <t>異世界でチート能力を手にした俺は、現実世界をも無双する ～レベルアップは人生を変えた～</t>
+  </si>
+  <si>
+    <t>ありふれた職業で世界最強</t>
+  </si>
+  <si>
+    <t>異世界魔王と召喚少女の奴隷魔術</t>
+  </si>
+  <si>
+    <t>落第騎士の英雄譚《キャバルリィ》</t>
+  </si>
+  <si>
+    <t>ナルト</t>
+  </si>
+  <si>
+    <t>ノラガミ</t>
+  </si>
+  <si>
+    <t>フェアリーテイル</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 聲の形</t>
+  </si>
+  <si>
+    <t>四月は君の嘘</t>
+  </si>
+  <si>
+    <t>あの日見た花の名前を僕達はまだ知らない。</t>
+  </si>
+  <si>
+    <t>賭ケグルイ</t>
+  </si>
+  <si>
+    <t>ようこそ実力至上主義の教室へ</t>
+  </si>
+  <si>
+    <t>天気の子</t>
+  </si>
+  <si>
+    <t>地獄楽</t>
+  </si>
+  <si>
+    <t>ソードアート・オンライン</t>
+  </si>
+  <si>
+    <t>ONE PIECE</t>
+  </si>
+  <si>
+    <t>無職転生 ～異世界行ったら本気だす～</t>
+  </si>
+  <si>
+    <t>ゴブリンスレイヤー</t>
+  </si>
+  <si>
+    <t>千と千尋の神隠し</t>
+  </si>
+  <si>
+    <t>ぐらんぶる</t>
+  </si>
+  <si>
+    <t>暗殺教室</t>
+  </si>
+  <si>
+    <t>かぐや様は告らせたい～天才たちの恋愛頭脳戦～</t>
+  </si>
+  <si>
+    <t>はたらく魔王さま!</t>
+  </si>
+  <si>
+    <t>政宗くんのリベンジ</t>
+  </si>
+  <si>
+    <t>古見さんは、コミュ症です。</t>
+  </si>
+  <si>
+    <t>戦闘員、派遣します！</t>
+  </si>
+  <si>
+    <t>ドクターストーン</t>
+  </si>
+  <si>
+    <t>86―エイティシックス―</t>
+  </si>
+  <si>
+    <t>CYBERPUNK EDGERUNNERS</t>
+  </si>
+  <si>
+    <t>とある科学の超電磁砲</t>
+  </si>
+  <si>
+    <t>ヴィヴィ -フローライトアイズソング</t>
+  </si>
+  <si>
+    <t>takt op.Destiny</t>
+  </si>
+  <si>
+    <t>天国大魔境</t>
+  </si>
+  <si>
     <t>Jujutsu Kaisen</t>
   </si>
   <si>
@@ -186,171 +351,6 @@
   </si>
   <si>
     <t>Heavenly Delusion</t>
-  </si>
-  <si>
-    <t>呪術廻戦</t>
-  </si>
-  <si>
-    <t>鬼滅の刃</t>
-  </si>
-  <si>
-    <t>五等分の花嫁</t>
-  </si>
-  <si>
-    <t>盾の勇者の成り上がり</t>
-  </si>
-  <si>
-    <t>転生したらスライムだった件</t>
-  </si>
-  <si>
-    <t>君の名は</t>
-  </si>
-  <si>
-    <t>推しの子</t>
-  </si>
-  <si>
-    <t>チェンソーマン</t>
-  </si>
-  <si>
-    <t>SPY×FAMILY</t>
-  </si>
-  <si>
-    <t>わたしの幸せな結婚</t>
-  </si>
-  <si>
-    <t>ゾン100～ゾンビになるまでにしたい100のこと～</t>
-  </si>
-  <si>
-    <t>女神のカフェテラス</t>
-  </si>
-  <si>
-    <t>僕の心のヤバイやつ</t>
-  </si>
-  <si>
-    <t>おとなりに銀河</t>
-  </si>
-  <si>
-    <t>トニカクカワイイ</t>
-  </si>
-  <si>
-    <t>すずめの戸締まり</t>
-  </si>
-  <si>
-    <t>山田くんとLv999の恋をする</t>
-  </si>
-  <si>
-    <t>とらドラ！</t>
-  </si>
-  <si>
-    <t>青春ブタ野郎はバニーガール先輩の夢を見ない</t>
-  </si>
-  <si>
-    <t>その着せ替え人形は恋をする</t>
-  </si>
-  <si>
-    <t>彼女、お借りします</t>
-  </si>
-  <si>
-    <t>冴えない彼女〈ヒロイン〉の育てかた</t>
-  </si>
-  <si>
-    <t>異世界でチート能力を手にした俺は、現実世界をも無双する ～レベルアップは人生を変えた～</t>
-  </si>
-  <si>
-    <t>ありふれた職業で世界最強</t>
-  </si>
-  <si>
-    <t>異世界魔王と召喚少女の奴隷魔術</t>
-  </si>
-  <si>
-    <t>落第騎士の英雄譚《キャバルリィ》</t>
-  </si>
-  <si>
-    <t>ナルト</t>
-  </si>
-  <si>
-    <t>ノラガミ</t>
-  </si>
-  <si>
-    <t>フェアリーテイル</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 聲の形</t>
-  </si>
-  <si>
-    <t>四月は君の嘘</t>
-  </si>
-  <si>
-    <t>あの日見た花の名前を僕達はまだ知らない。</t>
-  </si>
-  <si>
-    <t>賭ケグルイ</t>
-  </si>
-  <si>
-    <t>ようこそ実力至上主義の教室へ</t>
-  </si>
-  <si>
-    <t>天気の子</t>
-  </si>
-  <si>
-    <t>地獄楽</t>
-  </si>
-  <si>
-    <t>ソードアート・オンライン</t>
-  </si>
-  <si>
-    <t>ONE PIECE</t>
-  </si>
-  <si>
-    <t>無職転生 ～異世界行ったら本気だす～</t>
-  </si>
-  <si>
-    <t>ゴブリンスレイヤー</t>
-  </si>
-  <si>
-    <t>千と千尋の神隠し</t>
-  </si>
-  <si>
-    <t>ぐらんぶる</t>
-  </si>
-  <si>
-    <t>暗殺教室</t>
-  </si>
-  <si>
-    <t>かぐや様は告らせたい～天才たちの恋愛頭脳戦～</t>
-  </si>
-  <si>
-    <t>はたらく魔王さま!</t>
-  </si>
-  <si>
-    <t>政宗くんのリベンジ</t>
-  </si>
-  <si>
-    <t>古見さんは、コミュ症です。</t>
-  </si>
-  <si>
-    <t>戦闘員、派遣します！</t>
-  </si>
-  <si>
-    <t>ドクターストーン</t>
-  </si>
-  <si>
-    <t>86―エイティシックス―</t>
-  </si>
-  <si>
-    <t>CYBERPUNK EDGERUNNERS</t>
-  </si>
-  <si>
-    <t>とある科学の超電磁砲</t>
-  </si>
-  <si>
-    <t>ヴィヴィ -フローライトアイズソング</t>
-  </si>
-  <si>
-    <t>takt op.Destiny</t>
-  </si>
-  <si>
-    <t>天国大魔境</t>
   </si>
   <si>
     <t>cube</t>
